--- a/HT-6/Optica BAC-10-Catálogo de conceptos.xlsx
+++ b/HT-6/Optica BAC-10-Catálogo de conceptos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60895E0-C168-FA48-8DC5-3C752BA4A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F06B0B1-54E8-4CA4-88F6-D2BB12E86A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5900" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-10" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Nombre</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Empresa a la que se le compran los lentes formulados o con modificaciones y se le encargan los arreglos.</t>
+  </si>
+  <si>
+    <t>Cliente Online</t>
+  </si>
+  <si>
+    <t>Persona que compra productos a través del portal web de la óptica</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,37 +522,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -554,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -562,7 +568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -570,105 +576,113 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
